--- a/src/main/resources/testdata/Check_ConstructTab_VerifyColumns_ConstructTab.xlsx
+++ b/src/main/resources/testdata/Check_ConstructTab_VerifyColumns_ConstructTab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="2130" windowWidth="13965" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="14205" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -451,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +463,9 @@
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
